--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3899211.790215646</v>
+        <v>3896816.134210464</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7365616.209180885</v>
+        <v>7365616.209180884</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>141.4657036603253</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>412.2877386950441</v>
@@ -677,7 +677,7 @@
         <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>152.1067232668629</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>74.94580309220429</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>126.13796344096</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>310.2687014362229</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>142.7166733408782</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>60.86538463674658</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>20.59186093081896</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>69.35359439861583</v>
       </c>
       <c r="F8" t="n">
-        <v>13.28575104694513</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.52502338186935</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767978</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.9354087744531</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -1190,16 +1190,16 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555397</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>60.55071286939896</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>60.86538463674627</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444121</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,10 +1613,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877915</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>147.6895341487364</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>42.71572132711285</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1286.144681024959</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="C2" t="n">
-        <v>1286.144681024959</v>
+        <v>929.8068589052361</v>
       </c>
       <c r="D2" t="n">
-        <v>1286.144681024959</v>
+        <v>929.8068589052361</v>
       </c>
       <c r="E2" t="n">
-        <v>1286.144681024959</v>
+        <v>786.9122087432913</v>
       </c>
       <c r="F2" t="n">
-        <v>875.158776235352</v>
+        <v>779.9667079940879</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272266</v>
+        <v>363.5144466859625</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073764</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>455.1003844723718</v>
       </c>
       <c r="L2" t="n">
-        <v>730.2783389764048</v>
+        <v>692.7231656905639</v>
       </c>
       <c r="M2" t="n">
-        <v>1371.301548596299</v>
+        <v>1333.746375310458</v>
       </c>
       <c r="N2" t="n">
-        <v>2012.324758216193</v>
+        <v>1639.221481546043</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532827</v>
+        <v>2077.249136779522</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2277.553464068626</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4355,25 +4355,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2589.992766140986</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>2436.349611325973</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="X2" t="n">
-        <v>2062.883853064893</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="Y2" t="n">
-        <v>1672.744521089081</v>
+        <v>1298.769375845648</v>
       </c>
     </row>
     <row r="3">
@@ -4395,13 +4395,13 @@
         <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093836</v>
+        <v>85.99742130093821</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4410,22 +4410,22 @@
         <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>441.5380760964735</v>
+        <v>198.5384744202298</v>
       </c>
       <c r="L3" t="n">
-        <v>651.1289493493045</v>
+        <v>775.2612895234854</v>
       </c>
       <c r="M3" t="n">
-        <v>915.0684808447924</v>
+        <v>1039.200821018973</v>
       </c>
       <c r="N3" t="n">
-        <v>1200.402351278125</v>
+        <v>1680.224030638867</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>1919.028982390326</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2316.738101020795</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391.354544452375</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="C4" t="n">
-        <v>391.354544452375</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="D4" t="n">
-        <v>391.354544452375</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E4" t="n">
-        <v>243.4414508699818</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>243.4414508699818</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>243.4414508699818</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
         <v>187.5436166159875</v>
@@ -4510,28 +4510,28 @@
         <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>991.0700018628692</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>766.6588426383072</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361123</v>
+        <v>639.2467583545092</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361123</v>
+        <v>639.2467583545092</v>
       </c>
       <c r="W4" t="n">
-        <v>1021.785139324162</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="X4" t="n">
-        <v>793.7955884261448</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="Y4" t="n">
-        <v>573.0030092826147</v>
+        <v>349.8295883175485</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1146.095625202099</v>
+        <v>892.5163971443462</v>
       </c>
       <c r="C5" t="n">
-        <v>1146.095625202099</v>
+        <v>892.5163971443462</v>
       </c>
       <c r="D5" t="n">
-        <v>787.8299265953488</v>
+        <v>892.5163971443462</v>
       </c>
       <c r="E5" t="n">
-        <v>474.4271978718913</v>
+        <v>506.728144546102</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228371</v>
+        <v>499.7826437968985</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H5" t="n">
         <v>51.79985532281972</v>
@@ -4565,22 +4565,22 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135514</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4598,19 +4598,19 @@
         <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140986</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="V5" t="n">
-        <v>2258.929878797415</v>
+        <v>2005.350650739662</v>
       </c>
       <c r="W5" t="n">
-        <v>1906.161223527301</v>
+        <v>1652.581995469548</v>
       </c>
       <c r="X5" t="n">
-        <v>1532.695465266221</v>
+        <v>1279.116237208468</v>
       </c>
       <c r="Y5" t="n">
-        <v>1532.695465266221</v>
+        <v>1279.116237208468</v>
       </c>
     </row>
     <row r="6">
@@ -4629,40 +4629,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431335</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594483</v>
+        <v>599.2586963421436</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951774</v>
+        <v>965.564585834469</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1554.712543231644</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>727.1359052451301</v>
+        <v>370.6294478436283</v>
       </c>
       <c r="C7" t="n">
-        <v>558.1997223172232</v>
+        <v>370.6294478436283</v>
       </c>
       <c r="D7" t="n">
-        <v>408.0830829048874</v>
+        <v>220.5128084312926</v>
       </c>
       <c r="E7" t="n">
-        <v>260.1699893224943</v>
+        <v>72.59971484889948</v>
       </c>
       <c r="F7" t="n">
-        <v>113.2800418245839</v>
+        <v>72.59971484889948</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>72.59971484889948</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>72.59971484889948</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>1255.744530921302</v>
       </c>
       <c r="V7" t="n">
-        <v>1646.983670153878</v>
+        <v>1001.060042715416</v>
       </c>
       <c r="W7" t="n">
-        <v>1357.566500116917</v>
+        <v>1001.060042715416</v>
       </c>
       <c r="X7" t="n">
-        <v>1129.5769492189</v>
+        <v>773.0704918173982</v>
       </c>
       <c r="Y7" t="n">
-        <v>908.7843700753698</v>
+        <v>552.2779126738681</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>500.6174123906755</v>
+        <v>933.1596152839984</v>
       </c>
       <c r="C8" t="n">
-        <v>500.6174123906755</v>
+        <v>564.1970983435867</v>
       </c>
       <c r="D8" t="n">
-        <v>142.351713783925</v>
+        <v>205.9313997368362</v>
       </c>
       <c r="E8" t="n">
-        <v>142.351713783925</v>
+        <v>135.8772639806586</v>
       </c>
       <c r="F8" t="n">
         <v>128.9317632314552</v>
@@ -4799,16 +4799,16 @@
         <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281967</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
         <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4817,37 +4817,37 @@
         <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.81819508206</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645555</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.49363150746</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140984</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.815585560728</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019556</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.590997961803</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.590997961803</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="W8" t="n">
-        <v>1650.822342691689</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.356584430609</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="Y8" t="n">
-        <v>887.2172524547973</v>
+        <v>1319.75945534812</v>
       </c>
     </row>
     <row r="9">
@@ -4866,40 +4866,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281967</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096207</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431347</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594492</v>
+        <v>599.2586963421436</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>1240.281905962037</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1630.69146728778</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>1965.620148003311</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.6557187433658</v>
+        <v>112.9621915545358</v>
       </c>
       <c r="C10" t="n">
-        <v>496.7195358154589</v>
+        <v>112.9621915545358</v>
       </c>
       <c r="D10" t="n">
-        <v>346.6028964031232</v>
+        <v>112.9621915545358</v>
       </c>
       <c r="E10" t="n">
-        <v>198.68980282073</v>
+        <v>112.9621915545358</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281967</v>
+        <v>112.9621915545358</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281967</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281967</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281967</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080541</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.841713212197</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.570243622544</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317417</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750633</v>
@@ -4981,31 +4981,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153877</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153877</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153877</v>
+        <v>1321.927733452885</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153877</v>
+        <v>1032.809956463284</v>
       </c>
       <c r="V10" t="n">
-        <v>1585.503483652114</v>
+        <v>1032.809956463284</v>
       </c>
       <c r="W10" t="n">
-        <v>1296.086313615153</v>
+        <v>743.392786426323</v>
       </c>
       <c r="X10" t="n">
-        <v>1068.096762717136</v>
+        <v>515.4032355283057</v>
       </c>
       <c r="Y10" t="n">
-        <v>847.3041835736055</v>
+        <v>294.6106563847756</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168595</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362669</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191923</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349509</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>847.644273983533</v>
       </c>
     </row>
     <row r="14">
@@ -5261,19 +5261,19 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5285,16 +5285,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5419,13 +5419,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,10 +5549,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5595,22 +5595,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>229.5592957321584</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6209,67 +6209,67 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,19 +6297,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
         <v>680.0291294438176</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6598,25 +6598,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6774,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6835,22 +6835,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,25 +7309,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7391,19 +7391,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7415,13 +7415,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,28 +7643,28 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>207.0311336426203</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942333</v>
+        <v>348.4370131942334</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659683</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>164.5570059766106</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>26.19461818159724</v>
@@ -8058,22 +8058,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>245.4541431073169</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>359.282160794506</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>227.6567249260192</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>200.7458546176086</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>309.1863928326897</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740418</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>277.4922425530995</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>232.4400048971989</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906584</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534897</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9259388694759139</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>97.57899151911101</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>631028.1104448657</v>
+        <v>631028.1104448655</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>631028.1104448657</v>
+        <v>631028.1104448655</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176758</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.725617676</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176764</v>
-      </c>
       <c r="E2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.934697756</v>
-      </c>
       <c r="H2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="I2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977563</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="O2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977556</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898924</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457512</v>
+        <v>500888.8677457504</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.188556529212229e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151598</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252481</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
+        <v>6287.480531695144</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6287.480531695077</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="F4" t="n">
-        <v>6287.480531695075</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6287.480531695062</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.48053169507</v>
-      </c>
       <c r="I4" t="n">
-        <v>6287.480531695054</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695042</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695091</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695037</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26473,7 +26473,7 @@
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150956</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-388298.1239698734</v>
+        <v>-388298.1239698736</v>
       </c>
       <c r="C6" t="n">
-        <v>405203.5217410261</v>
+        <v>405203.5217410259</v>
       </c>
       <c r="D6" t="n">
-        <v>577967.8815309191</v>
+        <v>577967.8815309184</v>
       </c>
       <c r="E6" t="n">
-        <v>178669.0565964025</v>
+        <v>178634.3186709675</v>
       </c>
       <c r="F6" t="n">
-        <v>679557.9243421538</v>
+        <v>679523.1864167175</v>
       </c>
       <c r="G6" t="n">
-        <v>679557.9243421538</v>
+        <v>679523.1864167179</v>
       </c>
       <c r="H6" t="n">
-        <v>679557.9243421536</v>
+        <v>679523.1864167178</v>
       </c>
       <c r="I6" t="n">
-        <v>679557.9243421536</v>
+        <v>679523.1864167179</v>
       </c>
       <c r="J6" t="n">
-        <v>510143.9075161063</v>
+        <v>510109.1695906699</v>
       </c>
       <c r="K6" t="n">
-        <v>679557.9243421536</v>
+        <v>679523.1864167181</v>
       </c>
       <c r="L6" t="n">
-        <v>679557.9243421535</v>
+        <v>679523.1864167182</v>
       </c>
       <c r="M6" t="n">
-        <v>548673.4674379183</v>
+        <v>548638.7295124829</v>
       </c>
       <c r="N6" t="n">
-        <v>679557.9243421538</v>
+        <v>679523.1864167182</v>
       </c>
       <c r="O6" t="n">
-        <v>679557.9243421535</v>
+        <v>679523.1864167181</v>
       </c>
       <c r="P6" t="n">
-        <v>679557.9243421536</v>
+        <v>679523.1864167177</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.240552984763655e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.240552984763655e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26713,13 +26713,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.240552984763655e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.240552984763655e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.240552984763655e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498441</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.498191535246</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.240552984763655e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.240552984763655e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522338</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918296</v>
+        <v>428.2691096918289</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644024</v>
+        <v>525.2100965644015</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644024</v>
+        <v>525.2100965644015</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.240552984763655e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.240552984763655e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644024</v>
+        <v>525.2100965644015</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>240.4646664119364</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>197.1342454505501</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>75.25708457171622</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>160.107297296859</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>71.66166863603888</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>268.8083500409911</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>64.83556544767973</v>
@@ -27670,7 +27670,7 @@
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>105.4310422139829</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>83.89879858218217</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
@@ -27828,13 +27828,13 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>312.576775673646</v>
       </c>
       <c r="F8" t="n">
-        <v>393.5902946947663</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>105.7457139813306</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130012</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>191.2722586870817</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,13 +28087,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.240552984763655e-14</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.240552984763655e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28102,10 +28102,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.240552984763655e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.605826582817826e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28147,16 +28147,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.240552984763655e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.240552984763655e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.240552984763655e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28333,16 +28333,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.240552984763655e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.240552984763655e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31288,37 +31288,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,7 +31361,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31382,19 +31382,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31440,25 +31440,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265702</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730738</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
-        <v>145.6403241227261</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182602</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793975</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853279</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027917</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839329</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712721</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.240014506275</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086969</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179228</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612561</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.5210704925562</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586111</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.388397967503</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973636</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.139982904165</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315576</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470009</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274803</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284988</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841571</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31671,31 +31671,31 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>15.06611229599259</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425713</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964563</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.876191352541</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509645</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662504</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288115</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843058</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523067</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550403</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,16 +33974,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>597.1709559744729</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
         <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>447.0541449741274</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352464</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>442.4521770035141</v>
       </c>
       <c r="P2" t="n">
         <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>368.1037312591139</v>
+        <v>122.649588151797</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
         <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>401.7263824550189</v>
       </c>
       <c r="Q3" t="n">
         <v>276.0148132527188</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671845</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
@@ -35024,16 +35024,16 @@
         <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>595.0989468658332</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,10 +35100,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35112,7 +35112,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915739</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344169</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153406</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.987313575519</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>444.653913487342</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495853</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510054</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342474</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961974</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321223</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671857</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174894</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821467</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482244</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025565</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131501</v>
+        <v>484.4366997103492</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656112</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978356</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912596</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701672</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633446</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643208</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>212.934053971707</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,10 +37561,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>455.0369220524547</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
